--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,10 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Fcer2a</t>
   </si>
   <si>
     <t>Cr2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -440,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,61 +525,619 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.185224863175077</v>
+        <v>0.2015533333333333</v>
       </c>
       <c r="H2">
-        <v>0.185224863175077</v>
+        <v>0.60466</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5974487930676733</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5974487930676732</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.62682960351525</v>
+        <v>0.6996193333333333</v>
       </c>
       <c r="N2">
-        <v>0.62682960351525</v>
+        <v>2.098858</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.5038012080525314</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.5380088327597004</v>
       </c>
       <c r="Q2">
-        <v>0.1161044275451999</v>
+        <v>0.1410106086977778</v>
       </c>
       <c r="R2">
-        <v>0.1161044275451999</v>
+        <v>1.26909547828</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.3009954236970206</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.3214327277920306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.2015533333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.60466</v>
+      </c>
+      <c r="I3">
+        <v>0.5974487930676733</v>
+      </c>
+      <c r="J3">
+        <v>0.5974487930676732</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.1248936666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.374681</v>
+      </c>
+      <c r="O3">
+        <v>0.08993688016737222</v>
+      </c>
+      <c r="P3">
+        <v>0.09604350912126371</v>
+      </c>
+      <c r="Q3">
+        <v>0.02517273482888889</v>
+      </c>
+      <c r="R3">
+        <v>0.22655461346</v>
+      </c>
+      <c r="S3">
+        <v>0.05373268050826849</v>
+      </c>
+      <c r="T3">
+        <v>0.05738107860648306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.2015533333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.60466</v>
+      </c>
+      <c r="I4">
+        <v>0.5974487930676733</v>
+      </c>
+      <c r="J4">
+        <v>0.5974487930676732</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.1351616666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.405485</v>
+      </c>
+      <c r="O4">
+        <v>0.09733094513644119</v>
+      </c>
+      <c r="P4">
+        <v>0.1039396240963262</v>
+      </c>
+      <c r="Q4">
+        <v>0.02724228445555555</v>
+      </c>
+      <c r="R4">
+        <v>0.2451805601</v>
+      </c>
+      <c r="S4">
+        <v>0.05815025569990272</v>
+      </c>
+      <c r="T4">
+        <v>0.06209860296825775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.2015533333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.60466</v>
+      </c>
+      <c r="I5">
+        <v>0.5974487930676733</v>
+      </c>
+      <c r="J5">
+        <v>0.5974487930676732</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1641216666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.492365</v>
+      </c>
+      <c r="O5">
+        <v>0.1181852616054943</v>
+      </c>
+      <c r="P5">
+        <v>0.1262099288954898</v>
+      </c>
+      <c r="Q5">
+        <v>0.03307926898888889</v>
+      </c>
+      <c r="R5">
+        <v>0.2977134209</v>
+      </c>
+      <c r="S5">
+        <v>0.07060964190458982</v>
+      </c>
+      <c r="T5">
+        <v>0.07540396969176723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.2015533333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.60466</v>
+      </c>
+      <c r="I6">
+        <v>0.5974487930676733</v>
+      </c>
+      <c r="J6">
+        <v>0.5974487930676732</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.264885</v>
+      </c>
+      <c r="N6">
+        <v>0.52977</v>
+      </c>
+      <c r="O6">
+        <v>0.1907457050381609</v>
+      </c>
+      <c r="P6">
+        <v>0.1357981051272199</v>
+      </c>
+      <c r="Q6">
+        <v>0.0533884547</v>
+      </c>
+      <c r="R6">
+        <v>0.3203307282</v>
+      </c>
+      <c r="S6">
+        <v>0.1139607912578916</v>
+      </c>
+      <c r="T6">
+        <v>0.08113241400913451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1358033333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.40741</v>
+      </c>
+      <c r="I7">
+        <v>0.4025512069323268</v>
+      </c>
+      <c r="J7">
+        <v>0.4025512069323268</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6996193333333333</v>
+      </c>
+      <c r="N7">
+        <v>2.098858</v>
+      </c>
+      <c r="O7">
+        <v>0.5038012080525314</v>
+      </c>
+      <c r="P7">
+        <v>0.5380088327597004</v>
+      </c>
+      <c r="Q7">
+        <v>0.09501063753111109</v>
+      </c>
+      <c r="R7">
+        <v>0.8550957377799999</v>
+      </c>
+      <c r="S7">
+        <v>0.2028057843555108</v>
+      </c>
+      <c r="T7">
+        <v>0.2165761049676697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1358033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.40741</v>
+      </c>
+      <c r="I8">
+        <v>0.4025512069323268</v>
+      </c>
+      <c r="J8">
+        <v>0.4025512069323268</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1248936666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.374681</v>
+      </c>
+      <c r="O8">
+        <v>0.08993688016737222</v>
+      </c>
+      <c r="P8">
+        <v>0.09604350912126371</v>
+      </c>
+      <c r="Q8">
+        <v>0.01696097624555555</v>
+      </c>
+      <c r="R8">
+        <v>0.15264878621</v>
+      </c>
+      <c r="S8">
+        <v>0.03620419965910374</v>
+      </c>
+      <c r="T8">
+        <v>0.03866243051478065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1358033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.40741</v>
+      </c>
+      <c r="I9">
+        <v>0.4025512069323268</v>
+      </c>
+      <c r="J9">
+        <v>0.4025512069323268</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1351616666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.405485</v>
+      </c>
+      <c r="O9">
+        <v>0.09733094513644119</v>
+      </c>
+      <c r="P9">
+        <v>0.1039396240963262</v>
+      </c>
+      <c r="Q9">
+        <v>0.01835540487222222</v>
+      </c>
+      <c r="R9">
+        <v>0.16519864385</v>
+      </c>
+      <c r="S9">
+        <v>0.03918068943653849</v>
+      </c>
+      <c r="T9">
+        <v>0.04184102112806849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1358033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.40741</v>
+      </c>
+      <c r="I10">
+        <v>0.4025512069323268</v>
+      </c>
+      <c r="J10">
+        <v>0.4025512069323268</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1641216666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.492365</v>
+      </c>
+      <c r="O10">
+        <v>0.1181852616054943</v>
+      </c>
+      <c r="P10">
+        <v>0.1262099288954898</v>
+      </c>
+      <c r="Q10">
+        <v>0.02228826940555555</v>
+      </c>
+      <c r="R10">
+        <v>0.20059442465</v>
+      </c>
+      <c r="S10">
+        <v>0.04757561970090453</v>
+      </c>
+      <c r="T10">
+        <v>0.05080595920372256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1358033333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.40741</v>
+      </c>
+      <c r="I11">
+        <v>0.4025512069323268</v>
+      </c>
+      <c r="J11">
+        <v>0.4025512069323268</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.264885</v>
+      </c>
+      <c r="N11">
+        <v>0.52977</v>
+      </c>
+      <c r="O11">
+        <v>0.1907457050381609</v>
+      </c>
+      <c r="P11">
+        <v>0.1357981051272199</v>
+      </c>
+      <c r="Q11">
+        <v>0.03597226595</v>
+      </c>
+      <c r="R11">
+        <v>0.2158335957</v>
+      </c>
+      <c r="S11">
+        <v>0.07678491378026929</v>
+      </c>
+      <c r="T11">
+        <v>0.05466569111808536</v>
       </c>
     </row>
   </sheetData>
